--- a/CLASS.xlsx
+++ b/CLASS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro Millan Ruiz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ea7f20d3d585805/Escritorio/BDS/Block_5/NLP/Project/NLP_BDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52946FD9-FEF6-4AAB-94B5-40A59FE31D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5856,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2086"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A2060" workbookViewId="0">
+      <selection activeCell="B2074" sqref="B2074:B2075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
